--- a/Question_Set2/Programming skills/Flask.xlsx
+++ b/Question_Set2/Programming skills/Flask.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'In your system, users are associated with a list of items. However, you sometimes make mistakes and provide a non-existing variable (one not available in the template). In these cases, you want to return a default value of “Available soon” (instead of “None”). Which of the following code should you use to change the returned value?', 'ques_type': 2, 'options': ["{{ item | default('Available soon') }}", "{{ item | default='Available soon' }}", "{{ item| default: 'Available soon'}}", "{{ item| default:('Available soon') }}"], 'score': "{{ item | default('Available soon') }}"}, {'title': 'You are a product tester, testing the Jinja2 template using pytest. You are reviewing the following code, which is meant to print out a list of digits to an index page using the Jinja2 template. However, you suspect this code assumes that digit is a string (instead of an integer). Which decorator should you use to test this code?  {% for digit in digits %}\n     {{ digit }}\n{% endfor %}', 'ques_type': 2, 'options': ['@pytest.fixture', '@pytest.template', '@pytest.test_context', '@pytest.parameterize'], 'score': '@pytest.fixture'}, {'title': 'You are a Flask developer, designing authentication security. A user runs two sessions at the same time and changes their password in one of them. In this case, you want an administrator to be able to force logout of the user’s other session. To do this, you need to check the authentication to ensure its validity. Which method should you use to check the user’s authentication for validity?', 'ques_type': 2, 'options': ['Implement a user_loader callback using Flask-Login.', 'Use the @login_required decorator.', 'Store the user object in the session or in the cache.', 'Check the database every few minutes.'], 'score': 'Implement a user_loader callback using Flask-Login.'}, {'title': 'You need to assign a POST method whenever a user routes to ‘app.com/create-user/’.What code should you use to assign the method?', 'ques_type': 2, 'options': ["@app.route('/create-user/', methods=['POST'])", "@app.route('/create-user/', method='POST')", "@app.route(url='/create-user/', method='POST')", "@route(url='/create-user/', method='POST')"], 'score': "@app.route('/create-user/', methods=['POST'])"}]</t>
+    <t>questions = [
+    {
+        "title": "In your system, users are associated with a list of items. However, you sometimes make mistakes and provide a non-existing variable (one not available in the template). In these cases, you want to return a default value of \u201cAvailable soon\u201d (instead of \u201cNone\u201d). Which of the following code should you use to change the returned value?",
+        "ques_type": 2,
+        "options": [
+            "{{ item | default('Available soon') }}",
+            "{{ item | default='Available soon' }}",
+            "{{ item| default: 'Available soon'}}",
+            "{{ item| default:('Available soon') }}"
+        ],
+        "score": "{{ item | default('Available soon') }}"
+    },
+    {
+        "title": "You are a product tester, testing the Jinja2 template using pytest. You are reviewing the following code, which is meant to print out a list of digits to an index page using the Jinja2 template. However, you suspect this code assumes that digit is a string (instead of an integer). Which decorator should you use to test this code?  {% for digit in digits %}\n     {{ digit }}\n{% endfor %}",
+        "ques_type": 2,
+        "options": [
+            "@pytest.fixture",
+            "@pytest.template",
+            "@pytest.test_context",
+            "@pytest.parameterize"
+        ],
+        "score": "@pytest.fixture"
+    },
+    {
+        "title": "You are a Flask developer, designing authentication security. A user runs two sessions at the same time and changes their password in one of them. In this case, you want an administrator to be able to force logout of the user\u2019s other session. To do this, you need to check the authentication to ensure its validity. Which method should you use to check the user\u2019s authentication for validity?",
+        "ques_type": 2,
+        "options": [
+            "Implement a user_loader callback using Flask-Login.",
+            "Use the @login_required decorator.",
+            "Store the user object in the session or in the cache.",
+            "Check the database every few minutes."
+        ],
+        "score": "Implement a user_loader callback using Flask-Login."
+    },
+    {
+        "title": "You need to assign a POST method whenever a user routes to \u2018app.com/create-user/\u2019.What code should you use to assign the method?",
+        "ques_type": 2,
+        "options": [
+            "@app.route('/create-user/', methods=['POST'])",
+            "@app.route('/create-user/', method='POST')",
+            "@app.route(url='/create-user/', method='POST')",
+            "@route(url='/create-user/', method='POST')"
+        ],
+        "score": "@app.route('/create-user/', methods=['POST'])"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
